--- a/bh3/553148850941216257_2021-07-30_15-00-03.xlsx
+++ b/bh3/553148850941216257_2021-07-30_15-00-03.xlsx
@@ -6805,7 +6805,7 @@
         </is>
       </c>
       <c r="I90" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         </is>
       </c>
       <c r="I148" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J148" t="inlineStr">
         <is>

--- a/bh3/553148850941216257_2021-07-30_15-00-03.xlsx
+++ b/bh3/553148850941216257_2021-07-30_15-00-03.xlsx
@@ -1405,7 +1405,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         </is>
       </c>
       <c r="I91" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         </is>
       </c>
       <c r="I108" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         </is>
       </c>
       <c r="I117" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         </is>
       </c>
       <c r="I121" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         </is>
       </c>
       <c r="I126" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         </is>
       </c>
       <c r="I149" t="n">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="J149" t="inlineStr">
         <is>

--- a/bh3/553148850941216257_2021-07-30_15-00-03.xlsx
+++ b/bh3/553148850941216257_2021-07-30_15-00-03.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-08-01 23:08:26</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44409.96418981482</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -610,10 +624,8 @@
           <t>5042152164</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-08-01 10:10:18</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44409.42381944445</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -681,10 +693,8 @@
           <t>5038987657</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-31 21:55:16</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44408.91337962963</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -748,10 +758,8 @@
           <t>5038609399</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-31 21:10:02</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44408.88196759259</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -827,10 +835,8 @@
           <t>5033620344</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-31 21:08:41</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44408.88103009259</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -898,10 +904,8 @@
           <t>5033620344</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-31 19:24:37</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44408.80876157407</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -969,10 +973,8 @@
           <t>5033620344</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-31 17:07:29</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44408.71353009259</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1040,10 +1042,8 @@
           <t>5033620344</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-31 15:55:47</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44408.66373842592</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1111,10 +1111,8 @@
           <t>5033620344</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-31 15:53:34</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44408.66219907408</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1182,10 +1180,8 @@
           <t>5033620344</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-31 15:42:47</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44408.65471064814</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1253,10 +1249,8 @@
           <t>5033620344</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-31 15:41:25</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44408.65376157407</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1324,10 +1318,8 @@
           <t>5035577573</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-31 14:15:31</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44408.59410879629</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1399,10 +1391,8 @@
           <t>5035324782</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:37:07</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44408.56744212963</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1478,10 +1468,8 @@
           <t>5029046618</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:58:24</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44408.54055555556</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1549,10 +1537,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-31 11:22:15</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44408.47378472222</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1624,10 +1610,8 @@
           <t>5033853496</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-31 10:08:45</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44408.42274305555</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1691,10 +1675,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-31 09:38:16</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44408.40157407407</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1762,10 +1744,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-31 09:33:27</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44408.39822916667</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1830,10 +1810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-31 09:33:20</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44408.39814814815</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1897,10 +1875,8 @@
           <t>5033620344</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-31 09:25:26</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44408.39266203704</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1968,10 +1944,8 @@
           <t>5033593731</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-31 09:21:24</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44408.38986111111</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -2039,10 +2013,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-31 08:11:03</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44408.34100694444</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2130,10 +2102,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-31 07:46:31</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44408.3239699074</v>
       </c>
       <c r="I24" t="n">
         <v>2</v>
@@ -2207,10 +2177,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-31 02:36:56</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44408.10898148148</v>
       </c>
       <c r="I25" t="n">
         <v>2</v>
@@ -2287,10 +2255,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-31 02:09:46</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44408.09011574074</v>
       </c>
       <c r="I26" t="n">
         <v>3</v>
@@ -2354,10 +2320,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-30 23:42:18</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44407.98770833333</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2421,10 +2385,8 @@
           <t>5027940846</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-30 23:07:24</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44407.96347222223</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2500,10 +2462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-30 22:47:11</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44407.94943287037</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2590,10 +2550,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-30 22:34:31</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44407.94063657407</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2657,10 +2615,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-30 22:22:38</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44407.93238425926</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
@@ -2728,10 +2684,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-30 22:11:25</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44407.92459490741</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2799,10 +2753,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-30 21:54:14</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44407.91266203704</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
@@ -2879,10 +2831,8 @@
           <t>5029161766</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-30 18:56:27</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44407.78920138889</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2950,10 +2900,8 @@
           <t>5027940846</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-30 18:55:42</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44407.78868055555</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3029,10 +2977,8 @@
           <t>5029161766</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-30 18:54:19</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44407.78771990741</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3092,10 +3038,8 @@
           <t>5029380481</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-30 18:49:32</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44407.78439814815</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3163,10 +3107,8 @@
           <t>5027940846</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-30 18:45:53</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44407.78186342592</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3234,10 +3176,8 @@
           <t>5029186316</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-30 18:42:42</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44407.77965277778</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3313,10 +3253,8 @@
           <t>5029288635</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-30 18:39:33</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44407.77746527778</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3388,10 +3326,8 @@
           <t>5029186316</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-30 18:38:54</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44407.77701388889</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3455,10 +3391,8 @@
           <t>5029161766</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-30 18:34:42</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44407.77409722222</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3526,10 +3460,8 @@
           <t>5029186316</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-30 18:32:39</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44407.77267361111</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3605,10 +3537,8 @@
           <t>5029186316</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-30 18:28:52</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44407.7700462963</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3672,10 +3602,8 @@
           <t>5029186316</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-30 18:27:34</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44407.76914351852</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3744,10 +3672,8 @@
           <t>5029175441</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-30 18:26:10</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44407.76817129629</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3816,10 +3742,8 @@
           <t>5029161766</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-30 18:25:04</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44407.76740740741</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3879,10 +3803,8 @@
           <t>5029154985</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-30 18:24:47</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44407.76721064815</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3951,10 +3873,8 @@
           <t>5029149942</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-30 18:24:28</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44407.76699074074</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4014,10 +3934,8 @@
           <t>5029054884</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-30 18:23:35</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44407.76637731482</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4089,10 +4007,8 @@
           <t>5029123247</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-30 18:20:51</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44407.76447916667</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4156,10 +4072,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-30 18:17:42</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44407.76229166667</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4219,10 +4133,8 @@
           <t>5028566583</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-30 18:17:21</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44407.76204861111</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4286,10 +4198,8 @@
           <t>5029054884</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-30 18:13:29</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44407.75936342592</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4357,10 +4267,8 @@
           <t>5029053162</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-30 18:12:49</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44407.75890046296</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -4436,10 +4344,8 @@
           <t>5028566583</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-30 18:12:42</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44407.75881944445</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4503,10 +4409,8 @@
           <t>5028793231</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-30 18:12:25</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44407.75862268519</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4570,10 +4474,8 @@
           <t>5029046618</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-30 18:11:45</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44407.75815972222</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4645,10 +4547,8 @@
           <t>5028793231</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-30 18:09:07</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44407.75633101852</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4716,10 +4616,8 @@
           <t>5028566583</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-30 18:06:20</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44407.75439814815</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4783,10 +4681,8 @@
           <t>5028057801</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-30 18:06:01</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44407.75417824074</v>
       </c>
       <c r="I61" t="n">
         <v>1</v>
@@ -4846,10 +4742,8 @@
           <t>5028566583</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-30 18:00:37</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44407.75042824074</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4913,10 +4807,8 @@
           <t>5028793231</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-30 17:58:54</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44407.74923611111</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -4980,10 +4872,8 @@
           <t>5028451109</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-30 17:58:40</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44407.74907407408</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5047,10 +4937,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-30 17:48:53</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44407.74228009259</v>
       </c>
       <c r="I65" t="n">
         <v>45</v>
@@ -5118,10 +5006,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-30 17:45:59</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44407.74026620371</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5187,10 +5073,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-30 17:45:44</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44407.74009259259</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5250,10 +5134,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-30 17:44:56</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44407.73953703704</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5313,10 +5195,8 @@
           <t>5028793231</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-30 17:41:17</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44407.73700231482</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
@@ -5384,10 +5264,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-30 17:39:51</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44407.73600694445</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5455,10 +5333,8 @@
           <t>5028251809</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-30 17:38:43</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44407.73521990741</v>
       </c>
       <c r="I71" t="n">
         <v>13</v>
@@ -5530,10 +5406,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-30 17:38:17</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44407.73491898148</v>
       </c>
       <c r="I72" t="n">
         <v>2</v>
@@ -5609,10 +5483,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-30 17:29:12</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44407.72861111111</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5676,10 +5548,8 @@
           <t>5028665790</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-30 17:24:17</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44407.72519675926</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5747,10 +5617,8 @@
           <t>5028559586</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-30 17:21:31</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44407.72327546297</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -5814,10 +5682,8 @@
           <t>5028602184</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-30 17:16:26</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44407.71974537037</v>
       </c>
       <c r="I76" t="n">
         <v>2</v>
@@ -5881,10 +5747,8 @@
           <t>5028605426</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-30 17:16:14</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44407.71960648148</v>
       </c>
       <c r="I77" t="n">
         <v>2</v>
@@ -5948,10 +5812,8 @@
           <t>5028566583</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-30 17:11:14</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44407.71613425926</v>
       </c>
       <c r="I78" t="n">
         <v>4</v>
@@ -6015,10 +5877,8 @@
           <t>5028559586</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-30 17:11:10</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44407.71608796297</v>
       </c>
       <c r="I79" t="n">
         <v>5</v>
@@ -6086,10 +5946,8 @@
           <t>5028560766</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-30 17:10:50</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44407.71585648148</v>
       </c>
       <c r="I80" t="n">
         <v>3</v>
@@ -6157,10 +6015,8 @@
           <t>5028519405</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-30 17:10:11</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44407.71540509259</v>
       </c>
       <c r="I81" t="n">
         <v>3</v>
@@ -6228,10 +6084,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-30 17:07:59</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44407.71387731482</v>
       </c>
       <c r="I82" t="n">
         <v>1</v>
@@ -6299,10 +6153,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-30 17:07:29</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44407.71353009259</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6366,10 +6218,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-30 17:07:08</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44407.71328703704</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6447,10 +6297,8 @@
           <t>5028519405</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-30 17:06:23</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44407.7127662037</v>
       </c>
       <c r="I85" t="n">
         <v>5</v>
@@ -6514,10 +6362,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-30 16:56:19</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44407.70577546296</v>
       </c>
       <c r="I86" t="n">
         <v>2</v>
@@ -6589,10 +6435,8 @@
           <t>5028451109</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-30 16:55:56</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44407.70550925926</v>
       </c>
       <c r="I87" t="n">
         <v>4</v>
@@ -6668,10 +6512,8 @@
           <t>5028443246</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-30 16:55:39</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44407.7053125</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
@@ -6744,10 +6586,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-30 16:55:28</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44407.70518518519</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6811,10 +6651,8 @@
           <t>5028367226</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-30 16:52:37</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44407.70320601852</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6878,10 +6716,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-30 16:50:35</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44407.70179398148</v>
       </c>
       <c r="I91" t="n">
         <v>50</v>
@@ -6953,10 +6789,8 @@
           <t>5028367226</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-30 16:48:26</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44407.70030092593</v>
       </c>
       <c r="I92" t="n">
         <v>5</v>
@@ -7028,10 +6862,8 @@
           <t>5028367226</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-30 16:44:34</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44407.69761574074</v>
       </c>
       <c r="I93" t="n">
         <v>8</v>
@@ -7107,10 +6939,8 @@
           <t>5028251809</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-30 16:42:22</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44407.69608796296</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -7174,10 +7004,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-30 16:29:34</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44407.68719907408</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
@@ -7241,10 +7069,8 @@
           <t>5028251809</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-30 16:29:04</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44407.68685185185</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7308,10 +7134,8 @@
           <t>5028251809</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-30 16:28:34</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44407.68650462963</v>
       </c>
       <c r="I97" t="n">
         <v>8</v>
@@ -7375,10 +7199,8 @@
           <t>5027940846</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-30 16:24:08</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44407.68342592593</v>
       </c>
       <c r="I98" t="n">
         <v>3</v>
@@ -7454,10 +7276,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-30 16:18:50</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44407.67974537037</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -7525,10 +7345,8 @@
           <t>5028163159</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-30 16:15:49</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44407.67765046296</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -7646,10 +7464,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-30 16:12:05</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44407.67505787037</v>
       </c>
       <c r="I101" t="n">
         <v>7</v>
@@ -7724,10 +7540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-30 16:11:06</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44407.674375</v>
       </c>
       <c r="I102" t="n">
         <v>10</v>
@@ -7791,10 +7605,8 @@
           <t>5027788537</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-30 16:08:48</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44407.67277777778</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
@@ -7866,10 +7678,8 @@
           <t>5028057801</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-30 16:01:14</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44407.66752314815</v>
       </c>
       <c r="I104" t="n">
         <v>6</v>
@@ -7933,10 +7743,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:56:59</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44407.66457175926</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8012,10 +7820,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:50:12</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44407.65986111111</v>
       </c>
       <c r="I106" t="n">
         <v>1</v>
@@ -8083,10 +7889,8 @@
           <t>5027950883</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:44:52</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44407.65615740741</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8162,10 +7966,8 @@
           <t>5027940846</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:43:19</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44407.65508101852</v>
       </c>
       <c r="I108" t="n">
         <v>4</v>
@@ -8233,10 +8035,8 @@
           <t>5027937331</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:43:13</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44407.65501157408</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8304,10 +8104,8 @@
           <t>5027936991</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:43:03</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44407.65489583334</v>
       </c>
       <c r="I110" t="n">
         <v>4</v>
@@ -8375,10 +8173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:42:47</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44407.65471064814</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8454,10 +8250,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:41:25</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44407.65376157407</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8525,10 +8319,8 @@
           <t>5027914838</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:40:45</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44407.65329861111</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8600,10 +8392,8 @@
           <t>5027909108</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:39:17</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44407.6522800926</v>
       </c>
       <c r="I114" t="n">
         <v>3</v>
@@ -8671,10 +8461,8 @@
           <t>5027915323</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:38:45</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44407.65190972222</v>
       </c>
       <c r="I115" t="n">
         <v>9</v>
@@ -8738,10 +8526,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:37:47</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44407.65123842593</v>
       </c>
       <c r="I116" t="n">
         <v>13</v>
@@ -8817,10 +8603,8 @@
           <t>5027868498</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:33:16</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44407.64810185185</v>
       </c>
       <c r="I117" t="n">
         <v>17</v>
@@ -8892,10 +8676,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:30:24</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44407.64611111111</v>
       </c>
       <c r="I118" t="n">
         <v>12</v>
@@ -8959,10 +8741,8 @@
           <t>5027833674</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:27:12</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44407.64388888889</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9034,10 +8814,8 @@
           <t>5027820270</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:24:56</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44407.64231481482</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9105,10 +8883,8 @@
           <t>5027812883</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:24:23</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44407.64193287037</v>
       </c>
       <c r="I121" t="n">
         <v>9</v>
@@ -9180,10 +8956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:24:14</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44407.6418287037</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9247,10 +9021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:23:55</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44407.64160879629</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9326,10 +9098,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:22:40</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44407.64074074074</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9393,10 +9163,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:21:54</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44407.64020833333</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9472,10 +9240,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:21:25</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44407.63987268518</v>
       </c>
       <c r="I126" t="n">
         <v>16</v>
@@ -9539,10 +9305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:21:01</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44407.63959490741</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9618,10 +9382,8 @@
           <t>5027788537</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:20:26</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44407.63918981481</v>
       </c>
       <c r="I128" t="n">
         <v>5</v>
@@ -9689,10 +9451,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:20:25</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44407.63917824074</v>
       </c>
       <c r="I129" t="n">
         <v>107</v>
@@ -9771,10 +9531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:20:20</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44407.63912037037</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9838,10 +9596,8 @@
           <t>5027776859</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:18:38</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44407.63793981481</v>
       </c>
       <c r="I131" t="n">
         <v>1</v>
@@ -9917,10 +9673,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:17:15</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44407.63697916667</v>
       </c>
       <c r="I132" t="n">
         <v>4</v>
@@ -9996,10 +9750,8 @@
           <t>5027762170</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:16:25</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44407.63640046296</v>
       </c>
       <c r="I133" t="n">
         <v>1</v>
@@ -10063,10 +9815,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:15:53</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44407.6360300926</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10126,10 +9876,8 @@
           <t>5027761028</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:15:52</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44407.63601851852</v>
       </c>
       <c r="I135" t="n">
         <v>4</v>
@@ -10205,10 +9953,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:12:47</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44407.63387731482</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10276,10 +10022,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:11:55</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44407.63327546296</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10347,10 +10091,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:11:40</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44407.63310185185</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10426,10 +10168,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:11:27</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44407.63295138889</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10505,10 +10245,8 @@
           <t>5027731170</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:11:03</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44407.63267361111</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10576,10 +10314,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:10:40</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44407.63240740741</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10643,10 +10379,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:10:04</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44407.63199074074</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10710,10 +10444,8 @@
           <t>5027712797</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:08:34</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44407.63094907408</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10781,10 +10513,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:07:25</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44407.63015046297</v>
       </c>
       <c r="I144" t="n">
         <v>3</v>
@@ -10852,10 +10582,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:07:06</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44407.62993055556</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -10927,10 +10655,8 @@
           <t>5027698967</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:06:46</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44407.62969907407</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -10990,10 +10716,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:06:21</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44407.62940972222</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11061,10 +10785,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:06:11</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44407.62929398148</v>
       </c>
       <c r="I148" t="n">
         <v>24</v>
@@ -11132,10 +10854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:05:53</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44407.62908564815</v>
       </c>
       <c r="I149" t="n">
         <v>342</v>
@@ -11203,10 +10923,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:05:43</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44407.6289699074</v>
       </c>
       <c r="I150" t="n">
         <v>1</v>
@@ -11270,10 +10988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:05:38</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44407.62891203703</v>
       </c>
       <c r="I151" t="n">
         <v>3</v>
@@ -11345,10 +11061,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:05:10</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44407.62858796296</v>
       </c>
       <c r="I152" t="n">
         <v>35</v>
@@ -11421,10 +11135,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:04:51</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44407.62836805556</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11496,10 +11208,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:04:18</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44407.62798611111</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11573,10 +11283,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:03:46</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44407.62761574074</v>
       </c>
       <c r="I155" t="n">
         <v>2</v>
@@ -11636,10 +11344,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:03:45</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44407.62760416666</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
